--- a/biology/Zoologie/Colin_Groves/Colin_Groves.xlsx
+++ b/biology/Zoologie/Colin_Groves/Colin_Groves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colin Peter Groves, né le 24 juin 1942 à Londres (Royaume-Uni) et mort le 30 novembre 2017 à Canberra (Australie), est un spécialiste d'anthropologie biologique, professeur à l'université nationale australienne à Canberra. 
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 24 juin 1942 à Londres[1], Colin Groves y a obtenu une maîtrise en sciences en 1963, puis un doctorat en 1966. Il a enseigné à l'université de Californie, au Queen Elizabeth College (en) (Londres) et à l'université de Cambridge avant d'émigrer en Australie en 1974, où il enseigne à l'université nationale australienne. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 24 juin 1942 à Londres, Colin Groves y a obtenu une maîtrise en sciences en 1963, puis un doctorat en 1966. Il a enseigné à l'université de Californie, au Queen Elizabeth College (en) (Londres) et à l'université de Cambridge avant d'émigrer en Australie en 1974, où il enseigne à l'université nationale australienne. 
 Ses thèmes de recherche sont l'évolution de l'espèce humaine, les primates, les autres mammifères, l'analyse du squelette, l'anthropologie biologique et l'ethnobiologie. Il est surtout connu pour ses travaux sur les primates, l'évolution de l'homme et ses débats réguliers avec les créationnistes et les anti-évolutionnistes. 
 Colin Groves décrit notamment Homo ergaster avec Mazak en 1975. 
 Il est un membre actif des Sceptiques australiens et a publié de nombreux documents sur le thème du scepticisme.
-Il meurt le 30 novembre 2017 à Canberra[2].
+Il meurt le 30 novembre 2017 à Canberra.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1989 : A Theory Of Human And Primate Evolution, Oxford Science Publications
 1989 : Skeptical (édité par Donald Laycock, David Vernon, Colin Groves et Simon Brown.) Australian Skeptics
